--- a/biology/Médecine/Marcel_Bessis/Marcel_Bessis.xlsx
+++ b/biology/Médecine/Marcel_Bessis/Marcel_Bessis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Bessis, né le 15 novembre 1917 à Tunis et mort le 28 mars 1994 à Paris 5e, est un médecin et universitaire français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au lycée Janson-de-Sailly et à la Faculté de médecine de Paris. En 1937, il devient externe des hôpitaux de Paris. Il débute dans le laboratoire de Henri Rouvière, professeur d'anatomie. Il a comme condisciples Jean Dausset et Gabriel Richet.
 Pendant la Seconde Guerre mondiale, engagé volontaire, il fait la campagne d'Italie en tant que médecin militaire, et propose pour la première fois de traiter certains blessés par la technique d'exsanguino-transfusion, consistant dans le remplacement total du sang de l'organisme.
@@ -547,7 +561,9 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur[Quand ?]
  Commandeur de l'ordre national du Mérite
@@ -579,7 +595,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1948 : prix Roy-Vaucouloux de l'Académie des sciences
 1949 : prix de la Fondation Jansen de l'Académie de médecine
@@ -617,7 +635,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hématologie clinique, en collaboration avec Jean Bernard, Masson, 1958
 Naissance, vie et mort des globules rouges, 1966
